--- a/medicine/Mort/Liste_des_généraux_tués_durant_l'invasion_de_l'Ukraine_par_la_Russie/Liste_des_généraux_tués_durant_l'invasion_de_l'Ukraine_par_la_Russie.xlsx
+++ b/medicine/Mort/Liste_des_généraux_tués_durant_l'invasion_de_l'Ukraine_par_la_Russie/Liste_des_généraux_tués_durant_l'invasion_de_l'Ukraine_par_la_Russie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_des_g%C3%A9n%C3%A9raux_tu%C3%A9s_durant_l%27invasion_de_l%27Ukraine_par_la_Russie</t>
+          <t>Liste_des_généraux_tués_durant_l'invasion_de_l'Ukraine_par_la_Russie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cet article présente la liste des généraux tués durant l'invasion de l'Ukraine par la Russie[1],[2].
-Selon Le New York Times, les services de renseignements des États-Unis auraient fourni, aux forces ukrainiennes, les informations permettant l'élimination de généraux russes[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet article présente la liste des généraux tués durant l'invasion de l'Ukraine par la Russie,.
+Selon Le New York Times, les services de renseignements des États-Unis auraient fourni, aux forces ukrainiennes, les informations permettant l'élimination de généraux russes.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_des_g%C3%A9n%C3%A9raux_tu%C3%A9s_durant_l%27invasion_de_l%27Ukraine_par_la_Russie</t>
+          <t>Liste_des_généraux_tués_durant_l'invasion_de_l'Ukraine_par_la_Russie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -509,45 +521,16 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Liste</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Généraux russes
-Généraux ukrainiens</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Liste_des_g%C3%A9n%C3%A9raux_tu%C3%A9s_durant_l%27invasion_de_l%27Ukraine_par_la_Russie</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Mort/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_des_g%C3%A9n%C3%A9raux_tu%C3%A9s_durant_l%27invasion_de_l%27Ukraine_par_la_Russie</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
           <t>Analyse</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">D'après Michel Goya, la mort de généraux russes signifie qu'ils ont été forcés de se rendre au plus près du front pour compenser le manque d'initiative de leurs unités[14]. L'absence d'un corps de sous-officiers dans l'armée russe, induisant une « chaîne dysfonctionnelle de commande », est pointée comme l'une des causes de ce manque d'initiative, notamment par le général américain David Petraeus[28],[29]. 
-Il est également possible que le brouillage et/ou des difficultés dans l'utilisation des systèmes de communications sécurisées aient forcé les généraux russes à coordonner les efforts sur le front en personne et en faisant usage de téléphonie non-protégée[30]. Ces communications auraient été interceptées et auraient servi à planifier les attaques ayant causé leur mort[31],[32].
-Une unité spéciale rattachée au renseignement ukrainien est par ailleurs chargée de traquer les haut gradés russes. Composée de tireurs d'élite et équipée de drones, elle a pour but de « viser l’état-major russe pour mieux désorganiser l’ennemi »[29].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">D'après Michel Goya, la mort de généraux russes signifie qu'ils ont été forcés de se rendre au plus près du front pour compenser le manque d'initiative de leurs unités. L'absence d'un corps de sous-officiers dans l'armée russe, induisant une « chaîne dysfonctionnelle de commande », est pointée comme l'une des causes de ce manque d'initiative, notamment par le général américain David Petraeus,. 
+Il est également possible que le brouillage et/ou des difficultés dans l'utilisation des systèmes de communications sécurisées aient forcé les généraux russes à coordonner les efforts sur le front en personne et en faisant usage de téléphonie non-protégée. Ces communications auraient été interceptées et auraient servi à planifier les attaques ayant causé leur mort,.
+Une unité spéciale rattachée au renseignement ukrainien est par ailleurs chargée de traquer les haut gradés russes. Composée de tireurs d'élite et équipée de drones, elle a pour but de « viser l’état-major russe pour mieux désorganiser l’ennemi ».
 </t>
         </is>
       </c>
